--- a/gameserver/src/main/resources/gameData/gameScene.xlsx
+++ b/gameserver/src/main/resources/gameData/gameScene.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23028" windowHeight="9024"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
     <t>泰达希尔</t>
   </si>
   <si>
-    <t>1,3,4</t>
+    <t>1,3,4,7</t>
   </si>
   <si>
     <t>1,2</t>
@@ -81,7 +81,7 @@
     <t>紫禁之巅</t>
   </si>
   <si>
-    <t>1,7,6</t>
+    <t>1,7,6,5</t>
   </si>
   <si>
     <t>1,2,3,4,5</t>
@@ -99,43 +99,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -149,8 +120,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -158,30 +196,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,7 +219,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,61 +233,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,13 +265,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,18 +379,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -314,13 +391,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,127 +439,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,65 +456,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -555,6 +489,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -563,153 +521,188 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1068,7 +1061,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="4"/>

--- a/gameserver/src/main/resources/gameData/gameScene.xlsx
+++ b/gameserver/src/main/resources/gameData/gameScene.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>ID</t>
   </si>
@@ -33,6 +33,9 @@
     <t>场景对象</t>
   </si>
   <si>
+    <t>副本时间</t>
+  </si>
+  <si>
     <t>新手村</t>
   </si>
   <si>
@@ -91,6 +94,24 @@
   </si>
   <si>
     <t>1,2,3,4,5,6</t>
+  </si>
+  <si>
+    <t>副本-冰冠堡垒</t>
+  </si>
+  <si>
+    <t>4,7</t>
+  </si>
+  <si>
+    <t>12,13,14</t>
+  </si>
+  <si>
+    <t>副本-黑石塔</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7</t>
+  </si>
+  <si>
+    <t>8,9,10,11</t>
   </si>
 </sst>
 </file>
@@ -112,6 +133,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -120,6 +208,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -127,45 +239,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,24 +254,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,14 +263,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,38 +271,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,187 +286,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,17 +495,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,15 +537,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -531,6 +552,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -541,21 +577,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -564,10 +585,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,16 +597,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,115 +615,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1058,19 +1079,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="14.5555555555556" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1085,6 +1106,9 @@
       </c>
       <c r="E1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1092,16 +1116,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1109,16 +1133,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1126,16 +1150,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1143,16 +1167,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1160,16 +1184,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1177,16 +1201,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1194,16 +1218,56 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9">
+        <v>6060000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10">
+        <v>6060000</v>
       </c>
     </row>
   </sheetData>

--- a/gameserver/src/main/resources/gameData/gameScene.xlsx
+++ b/gameserver/src/main/resources/gameData/gameScene.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="场景表" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -120,9 +120,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -134,6 +134,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -141,13 +156,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -155,23 +163,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,17 +232,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -216,31 +254,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,22 +276,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -286,13 +286,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,19 +400,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,145 +442,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,6 +477,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -495,17 +519,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,15 +557,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -566,17 +577,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -585,145 +585,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1082,7 +1082,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1247,7 +1247,7 @@
         <v>28</v>
       </c>
       <c r="F9">
-        <v>6060000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1267,7 +1267,7 @@
         <v>31</v>
       </c>
       <c r="F10">
-        <v>6060000</v>
+        <v>60000</v>
       </c>
     </row>
   </sheetData>

--- a/gameserver/src/main/resources/gameData/gameScene.xlsx
+++ b/gameserver/src/main/resources/gameData/gameScene.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>ID</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>相邻场景</t>
+  </si>
+  <si>
+    <t>地图类型</t>
   </si>
   <si>
     <t>场景对象</t>
@@ -120,9 +123,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -133,89 +136,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -232,9 +152,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -254,9 +190,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,6 +249,36 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -286,13 +289,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,13 +361,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,145 +457,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,56 +480,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -554,11 +507,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,6 +571,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -585,10 +588,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -597,133 +600,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1079,19 +1082,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="14.5555555555556" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1110,163 +1114,193 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
         <v>11</v>
       </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
         <v>14</v>
       </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
         <v>17</v>
       </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
         <v>20</v>
       </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
         <v>23</v>
       </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
         <v>28</v>
       </c>
-      <c r="F9">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9">
         <v>60000</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" t="s">
         <v>31</v>
       </c>
-      <c r="F10">
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10">
         <v>60000</v>
       </c>
     </row>

--- a/gameserver/src/main/resources/gameData/gameScene.xlsx
+++ b/gameserver/src/main/resources/gameData/gameScene.xlsx
@@ -137,7 +137,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,25 +198,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -190,46 +220,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,23 +244,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,6 +252,29 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,25 +289,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,157 +439,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,6 +480,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -507,21 +522,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -542,6 +542,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -556,30 +580,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -588,145 +588,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1085,7 +1085,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1278,7 +1278,7 @@
         <v>29</v>
       </c>
       <c r="G9">
-        <v>60000</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1301,7 +1301,7 @@
         <v>32</v>
       </c>
       <c r="G10">
-        <v>60000</v>
+        <v>360000</v>
       </c>
     </row>
   </sheetData>

--- a/gameserver/src/main/resources/gameData/gameScene.xlsx
+++ b/gameserver/src/main/resources/gameData/gameScene.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>ID</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t>8,9,10,11</t>
+  </si>
+  <si>
+    <t>哀嚎洞穴</t>
+  </si>
+  <si>
+    <t>墓地</t>
   </si>
 </sst>
 </file>
@@ -122,10 +128,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -152,31 +158,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,6 +188,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,9 +209,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -220,45 +239,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,15 +280,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,187 +295,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,17 +489,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,6 +505,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,17 +542,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -553,15 +553,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,6 +571,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -588,145 +594,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1082,10 +1088,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1302,6 +1308,49 @@
       </c>
       <c r="G10">
         <v>360000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11">
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/gameserver/src/main/resources/gameData/gameScene.xlsx
+++ b/gameserver/src/main/resources/gameData/gameScene.xlsx
@@ -128,10 +128,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -142,6 +142,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -158,6 +174,28 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -165,9 +203,62 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -179,100 +270,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,120 +301,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -422,60 +476,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,19 +491,34 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -533,30 +548,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -568,6 +559,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,10 +594,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -606,133 +606,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1091,7 +1091,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1347,7 +1347,7 @@
         <v>31</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>15</v>

--- a/gameserver/src/main/resources/gameData/gameScene.xlsx
+++ b/gameserver/src/main/resources/gameData/gameScene.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
-    <sheet name="场景表" sheetId="1" r:id="rId1"/>
+    <sheet name="场景配置表" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -78,7 +78,7 @@
     <t>城堡</t>
   </si>
   <si>
-    <t>4,6</t>
+    <t>4,6,12</t>
   </si>
   <si>
     <t>5,1,2</t>
@@ -87,7 +87,7 @@
     <t>紫禁之巅</t>
   </si>
   <si>
-    <t>1,7,6,5</t>
+    <t>1,7,6,5,12</t>
   </si>
   <si>
     <t>1,2,3,4,5</t>
@@ -128,9 +128,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -142,11 +142,62 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -158,15 +209,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,21 +219,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,69 +234,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -270,17 +248,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,12 +295,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -313,25 +373,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,7 +415,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,127 +469,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,15 +486,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -515,20 +506,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,6 +524,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,24 +578,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,10 +594,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -606,16 +606,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -624,115 +624,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1091,7 +1091,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>

--- a/gameserver/src/main/resources/gameData/gameScene.xlsx
+++ b/gameserver/src/main/resources/gameData/gameScene.xlsx
@@ -105,7 +105,7 @@
     <t>4,7</t>
   </si>
   <si>
-    <t>12,13,14</t>
+    <t>14,13,12</t>
   </si>
   <si>
     <t>副本-黑石塔</t>
@@ -114,7 +114,7 @@
     <t>1,2,3,4,5,6,7</t>
   </si>
   <si>
-    <t>8,9,10,11</t>
+    <t>11,10,9,8</t>
   </si>
   <si>
     <t>哀嚎洞穴</t>
@@ -130,8 +130,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -143,6 +143,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -150,7 +157,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,8 +170,109 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,114 +285,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -295,25 +295,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,37 +445,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,109 +457,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,26 +489,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,7 +532,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,17 +552,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,10 +594,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -606,133 +606,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1091,7 +1091,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>

--- a/gameserver/src/main/resources/gameData/gameScene.xlsx
+++ b/gameserver/src/main/resources/gameData/gameScene.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>ID</t>
   </si>
@@ -45,7 +45,7 @@
     <t>上线</t>
   </si>
   <si>
-    <t>1,5</t>
+    <t>1,5,6,7</t>
   </si>
   <si>
     <t>泰达希尔</t>
@@ -54,70 +54,79 @@
     <t>1,3,4,7</t>
   </si>
   <si>
+    <t>1,2,6,7</t>
+  </si>
+  <si>
+    <t>桃花源</t>
+  </si>
+  <si>
+    <t>2,4,5</t>
+  </si>
+  <si>
+    <t>2,3,4</t>
+  </si>
+  <si>
+    <t>提瑞斯法森林</t>
+  </si>
+  <si>
+    <t>3,5</t>
+  </si>
+  <si>
+    <t>1,2,3,4,6,7</t>
+  </si>
+  <si>
+    <t>城堡</t>
+  </si>
+  <si>
+    <t>4,6,12</t>
+  </si>
+  <si>
+    <t>5,1,2,3,4,6,7</t>
+  </si>
+  <si>
+    <t>紫禁之巅</t>
+  </si>
+  <si>
+    <t>1,7,6,5,12</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
+  </si>
+  <si>
+    <t>珈蓝之洞</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6</t>
+  </si>
+  <si>
+    <t>6,7</t>
+  </si>
+  <si>
+    <t>奥特兰山战场</t>
+  </si>
+  <si>
+    <t>副本-冰冠堡垒</t>
+  </si>
+  <si>
+    <t>4,7</t>
+  </si>
+  <si>
+    <t>14,13,12</t>
+  </si>
+  <si>
+    <t>副本-黑石塔</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7</t>
+  </si>
+  <si>
+    <t>11,10,9,8</t>
+  </si>
+  <si>
+    <t>哀嚎洞穴</t>
+  </si>
+  <si>
     <t>1,2</t>
-  </si>
-  <si>
-    <t>桃花源</t>
-  </si>
-  <si>
-    <t>2,4,5</t>
-  </si>
-  <si>
-    <t>2,3,4</t>
-  </si>
-  <si>
-    <t>提瑞斯法森林</t>
-  </si>
-  <si>
-    <t>3,5</t>
-  </si>
-  <si>
-    <t>1,2,3,4</t>
-  </si>
-  <si>
-    <t>城堡</t>
-  </si>
-  <si>
-    <t>4,6,12</t>
-  </si>
-  <si>
-    <t>5,1,2</t>
-  </si>
-  <si>
-    <t>紫禁之巅</t>
-  </si>
-  <si>
-    <t>1,7,6,5,12</t>
-  </si>
-  <si>
-    <t>1,2,3,4,5</t>
-  </si>
-  <si>
-    <t>珈蓝之洞</t>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6</t>
-  </si>
-  <si>
-    <t>副本-冰冠堡垒</t>
-  </si>
-  <si>
-    <t>4,7</t>
-  </si>
-  <si>
-    <t>14,13,12</t>
-  </si>
-  <si>
-    <t>副本-黑石塔</t>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7</t>
-  </si>
-  <si>
-    <t>11,10,9,8</t>
-  </si>
-  <si>
-    <t>哀嚎洞穴</t>
   </si>
   <si>
     <t>墓地</t>
@@ -128,10 +137,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -143,51 +152,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,31 +189,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,50 +256,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -295,55 +304,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,127 +484,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,6 +495,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -500,6 +520,30 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,8 +566,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,8 +575,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,41 +595,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -594,10 +603,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -606,133 +615,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -809,7 +818,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1088,10 +1097,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1260,51 +1269,45 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8">
-        <v>1</v>
+      <c r="F8" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:5">
       <c r="A9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9">
-        <v>360000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10">
         <v>360000</v>
@@ -1312,44 +1315,67 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <v>360000</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12">
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13">
         <v>1</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>15</v>
       </c>
     </row>

--- a/gameserver/src/main/resources/gameData/gameScene.xlsx
+++ b/gameserver/src/main/resources/gameData/gameScene.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="场景配置表" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -137,10 +135,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -152,30 +150,106 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,7 +271,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,7 +279,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,83 +287,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,31 +302,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,150 +483,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,6 +493,63 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -524,63 +579,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -603,7 +601,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -615,133 +613,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1100,7 +1098,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1108,6 +1106,7 @@
     <col min="2" max="2" width="14.5555555555556" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="10.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="22.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1273,7 +1272,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1288,6 +1287,9 @@
       </c>
       <c r="E9">
         <v>1</v>
+      </c>
+      <c r="F9">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1384,38 +1386,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/gameserver/src/main/resources/gameData/gameScene.xlsx
+++ b/gameserver/src/main/resources/gameData/gameScene.xlsx
@@ -135,10 +135,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -164,7 +164,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,39 +186,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,6 +218,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -247,9 +241,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,7 +272,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,15 +287,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,181 +308,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,6 +493,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -516,15 +531,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,17 +559,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -579,17 +574,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,142 +601,142 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -816,7 +816,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1286,7 +1286,7 @@
         <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>15</v>

--- a/gameserver/src/main/resources/gameData/gameScene.xlsx
+++ b/gameserver/src/main/resources/gameData/gameScene.xlsx
@@ -137,8 +137,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -149,6 +149,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -156,23 +193,93 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,113 +292,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -302,37 +302,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,37 +458,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,103 +470,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,6 +493,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -514,23 +538,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,39 +570,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -593,6 +578,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -601,10 +601,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -613,133 +613,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -816,7 +816,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1098,7 +1098,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>

--- a/gameserver/src/main/resources/gameData/gameScene.xlsx
+++ b/gameserver/src/main/resources/gameData/gameScene.xlsx
@@ -43,7 +43,7 @@
     <t>上线</t>
   </si>
   <si>
-    <t>1,5,6,7</t>
+    <t>1,5,6,7,3</t>
   </si>
   <si>
     <t>泰达希尔</t>
@@ -52,7 +52,7 @@
     <t>1,3,4,7</t>
   </si>
   <si>
-    <t>1,2,6,7</t>
+    <t>1,2,6,7,3</t>
   </si>
   <si>
     <t>桃花源</t>
@@ -135,10 +135,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -149,6 +149,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -158,9 +194,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -172,50 +238,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -224,62 +246,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,6 +261,37 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -302,19 +302,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,19 +410,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,55 +452,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,73 +476,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,6 +493,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -511,11 +520,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,39 +585,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -578,21 +593,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -601,10 +601,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -613,133 +613,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
